--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -49,147 +49,150 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>day</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>day</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
@@ -199,30 +202,30 @@
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -665,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3953488372093023</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3232323232323233</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8560371517027864</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="L6">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="M6">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7954545454545454</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -869,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7489177489177489</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -895,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -921,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6623376623376623</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -947,13 +947,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6542372881355932</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="M12">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -973,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6301369863013698</v>
+        <v>0.6847457627118644</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -999,13 +999,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6274509803921569</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1025,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.65625</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1051,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6235955056179775</v>
+        <v>0.6356340288924559</v>
       </c>
       <c r="L16">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="M16">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1077,13 +1077,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1103,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6056338028169014</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1129,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.59375</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1155,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5828571428571429</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1207,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5576923076923077</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1233,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5568862275449101</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1285,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1311,13 +1311,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.543859649122807</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1337,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5428571428571428</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L27">
         <v>38</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1363,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5180722891566265</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1389,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5128205128205128</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1415,13 +1415,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5079365079365079</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1441,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1467,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4473684210526316</v>
+        <v>0.45</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1493,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4457831325301205</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L33">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1519,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4444444444444444</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1545,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4135338345864661</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L35">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1571,13 +1571,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3947368421052632</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1597,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3813229571984436</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L37">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M37">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1623,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3431372549019608</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L38">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>268</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1649,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3423423423423423</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1675,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3164383561643835</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L40">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>499</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1701,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3093525179856115</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1727,13 +1727,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3069306930693069</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1753,7 +1753,7 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2932330827067669</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L43">
         <v>39</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1779,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2777777777777778</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1805,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2649006622516556</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L45">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2631578947368421</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L46">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2389666307857912</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="L47">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>707</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1883,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2013422818791946</v>
+        <v>0.2421959095801938</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>119</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1909,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1912225705329154</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L49">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1935,7 +1935,7 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1890243902439024</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L50">
         <v>31</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1961,13 +1961,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1801324503311258</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L51">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>619</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1987,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.175416133162612</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L52">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M52">
         <v>138</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2013,13 +2013,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1623616236162362</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L53">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M53">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>227</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2039,25 +2039,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1536388140161725</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2065,25 +2065,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.137546468401487</v>
+        <v>0.15</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>232</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2091,13 +2091,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1295454545454545</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L56">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M56">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2117,7 +2117,7 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1237113402061856</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L57">
         <v>36</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2143,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1206140350877193</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L58">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>401</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2169,13 +2169,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1193317422434367</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L59">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M59">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2195,13 +2195,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1192214111922141</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L60">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>362</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2221,25 +2221,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.08045977011494253</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L61">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M61">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>640</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2247,25 +2247,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.07749766573295985</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="L62">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M62">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>988</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2273,25 +2273,25 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.05719557195571956</v>
+        <v>0.07850467289719626</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>511</v>
+        <v>986</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2299,13 +2299,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.05566218809980806</v>
+        <v>0.05914972273567468</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M64">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>0.97</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2325,19 +2325,19 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.04329004329004329</v>
+        <v>0.04246100519930676</v>
       </c>
       <c r="L65">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M65">
         <v>52</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
